--- a/remap_ville_plugin/mapping_CONSTRUCTION_STANDARD.xlsx
+++ b/remap_ville_plugin/mapping_CONSTRUCTION_STANDARD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12611F73-7A66-45D0-A91A-3A2C244D9B44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CED0616-6DB1-428B-86B4-1ACDDB8CF5FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F685"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116:E171"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -545,7 +547,7 @@
         <v>2040</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>25</v>
@@ -565,7 +567,7 @@
         <v>2040</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>25</v>
@@ -585,7 +587,7 @@
         <v>2040</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>25</v>
@@ -605,7 +607,7 @@
         <v>2040</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>25</v>
@@ -625,7 +627,7 @@
         <v>2040</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>25</v>
@@ -645,7 +647,7 @@
         <v>2040</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>25</v>
@@ -665,7 +667,7 @@
         <v>2040</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>25</v>
@@ -685,7 +687,7 @@
         <v>2040</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>25</v>
@@ -705,7 +707,7 @@
         <v>2040</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
@@ -725,7 +727,7 @@
         <v>2040</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>25</v>
@@ -745,7 +747,7 @@
         <v>2040</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>25</v>
@@ -765,7 +767,7 @@
         <v>2040</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>25</v>
@@ -785,7 +787,7 @@
         <v>2040</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>25</v>
@@ -805,7 +807,7 @@
         <v>2040</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>25</v>
@@ -825,7 +827,7 @@
         <v>2040</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>25</v>
@@ -845,7 +847,7 @@
         <v>2040</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>25</v>
@@ -865,7 +867,7 @@
         <v>2040</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>25</v>
@@ -885,7 +887,7 @@
         <v>2040</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>25</v>
@@ -905,7 +907,7 @@
         <v>2040</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>25</v>
@@ -925,7 +927,7 @@
         <v>2040</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>25</v>
@@ -945,7 +947,7 @@
         <v>2040</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>25</v>
@@ -965,7 +967,7 @@
         <v>2040</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>25</v>
@@ -985,7 +987,7 @@
         <v>2040</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>25</v>
@@ -1005,7 +1007,7 @@
         <v>2040</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>25</v>
@@ -1025,7 +1027,7 @@
         <v>2040</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>25</v>
@@ -1045,7 +1047,7 @@
         <v>2040</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>25</v>
@@ -1065,7 +1067,7 @@
         <v>2040</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>25</v>
@@ -1085,7 +1087,7 @@
         <v>2040</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>25</v>
@@ -1105,7 +1107,7 @@
         <v>2040</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>25</v>
@@ -1125,7 +1127,7 @@
         <v>2040</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>25</v>
@@ -1145,7 +1147,7 @@
         <v>2040</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>25</v>
@@ -1165,7 +1167,7 @@
         <v>2040</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>25</v>
@@ -1185,7 +1187,7 @@
         <v>2040</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>25</v>
@@ -1205,7 +1207,7 @@
         <v>2040</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>25</v>
@@ -1225,7 +1227,7 @@
         <v>2040</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>25</v>
@@ -1245,7 +1247,7 @@
         <v>2040</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>25</v>
@@ -1265,7 +1267,7 @@
         <v>2040</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>25</v>
@@ -1285,7 +1287,7 @@
         <v>2040</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>25</v>
@@ -1305,7 +1307,7 @@
         <v>2040</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>25</v>
@@ -1325,7 +1327,7 @@
         <v>2040</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>25</v>
@@ -1345,7 +1347,7 @@
         <v>2040</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>25</v>
@@ -1365,7 +1367,7 @@
         <v>2040</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>25</v>
@@ -1385,7 +1387,7 @@
         <v>2040</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>25</v>
@@ -1405,7 +1407,7 @@
         <v>2040</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>25</v>
@@ -1425,7 +1427,7 @@
         <v>2040</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>25</v>
@@ -1445,7 +1447,7 @@
         <v>2040</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>25</v>
@@ -1465,7 +1467,7 @@
         <v>2040</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>25</v>
@@ -1485,7 +1487,7 @@
         <v>2040</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>25</v>
@@ -1505,7 +1507,7 @@
         <v>2040</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>25</v>
@@ -1525,7 +1527,7 @@
         <v>2040</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>25</v>
@@ -1545,7 +1547,7 @@
         <v>2040</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>25</v>
@@ -1565,7 +1567,7 @@
         <v>2040</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>25</v>
@@ -1585,7 +1587,7 @@
         <v>2040</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>25</v>
@@ -1605,7 +1607,7 @@
         <v>2040</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>25</v>
@@ -1625,7 +1627,7 @@
         <v>2040</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>25</v>
@@ -1645,7 +1647,7 @@
         <v>2040</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>25</v>
@@ -1665,7 +1667,7 @@
         <v>2040</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>25</v>
@@ -1685,7 +1687,7 @@
         <v>2040</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>25</v>
@@ -1705,7 +1707,7 @@
         <v>2040</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>25</v>
@@ -1725,7 +1727,7 @@
         <v>2040</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>25</v>
@@ -1745,7 +1747,7 @@
         <v>2040</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>25</v>
@@ -1765,7 +1767,7 @@
         <v>2040</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>25</v>
@@ -1785,7 +1787,7 @@
         <v>2040</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>25</v>
@@ -1805,7 +1807,7 @@
         <v>2040</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>25</v>
@@ -1825,7 +1827,7 @@
         <v>2040</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>25</v>
@@ -1845,7 +1847,7 @@
         <v>2040</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>25</v>
@@ -1865,7 +1867,7 @@
         <v>2040</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>25</v>
@@ -1885,7 +1887,7 @@
         <v>2040</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>25</v>
@@ -1905,7 +1907,7 @@
         <v>2040</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>25</v>
@@ -1925,7 +1927,7 @@
         <v>2040</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>25</v>
@@ -1945,7 +1947,7 @@
         <v>2040</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>25</v>
@@ -1965,7 +1967,7 @@
         <v>2040</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>25</v>
@@ -1985,7 +1987,7 @@
         <v>2040</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>25</v>
@@ -2005,7 +2007,7 @@
         <v>2040</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>25</v>
@@ -2025,7 +2027,7 @@
         <v>2040</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>25</v>
@@ -2045,7 +2047,7 @@
         <v>2040</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>25</v>
@@ -2065,7 +2067,7 @@
         <v>2040</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>25</v>
@@ -2085,7 +2087,7 @@
         <v>2040</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>25</v>
@@ -2105,7 +2107,7 @@
         <v>2040</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>25</v>
@@ -2125,7 +2127,7 @@
         <v>2040</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>25</v>
@@ -2145,7 +2147,7 @@
         <v>2040</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>25</v>
@@ -2165,7 +2167,7 @@
         <v>2040</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>25</v>
@@ -2185,7 +2187,7 @@
         <v>2040</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>25</v>
@@ -2205,7 +2207,7 @@
         <v>2040</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>25</v>
@@ -2225,7 +2227,7 @@
         <v>2040</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>25</v>
@@ -2245,7 +2247,7 @@
         <v>2040</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>25</v>
@@ -2265,7 +2267,7 @@
         <v>2040</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>25</v>
@@ -2285,7 +2287,7 @@
         <v>2040</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>25</v>
@@ -2305,7 +2307,7 @@
         <v>2040</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>25</v>
@@ -2325,7 +2327,7 @@
         <v>2040</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>25</v>
@@ -2345,7 +2347,7 @@
         <v>2040</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>25</v>
@@ -2365,7 +2367,7 @@
         <v>2040</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>25</v>
@@ -2385,7 +2387,7 @@
         <v>2040</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>25</v>
@@ -2405,7 +2407,7 @@
         <v>2040</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>25</v>
@@ -2425,7 +2427,7 @@
         <v>2040</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>25</v>
@@ -2445,7 +2447,7 @@
         <v>2040</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>25</v>
@@ -2465,7 +2467,7 @@
         <v>2040</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>25</v>
@@ -2485,7 +2487,7 @@
         <v>2040</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>25</v>
@@ -2505,7 +2507,7 @@
         <v>2040</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>25</v>
@@ -2525,7 +2527,7 @@
         <v>2040</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>25</v>
@@ -2545,7 +2547,7 @@
         <v>2040</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>25</v>
@@ -2565,7 +2567,7 @@
         <v>2040</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>25</v>
@@ -2585,7 +2587,7 @@
         <v>2040</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>25</v>
@@ -2605,7 +2607,7 @@
         <v>2040</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>25</v>
@@ -2625,7 +2627,7 @@
         <v>2040</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>25</v>
@@ -2645,7 +2647,7 @@
         <v>2040</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>25</v>
@@ -2665,7 +2667,7 @@
         <v>2040</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>25</v>
@@ -2685,7 +2687,7 @@
         <v>2040</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>25</v>
@@ -2705,7 +2707,7 @@
         <v>2040</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>25</v>
@@ -2725,7 +2727,7 @@
         <v>2040</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>25</v>
@@ -2745,7 +2747,7 @@
         <v>2040</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>25</v>
@@ -2765,7 +2767,7 @@
         <v>2040</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>25</v>
@@ -2785,7 +2787,7 @@
         <v>2040</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>25</v>
@@ -2805,7 +2807,7 @@
         <v>2040</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>25</v>
@@ -3945,7 +3947,7 @@
         <v>2040</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>25</v>
@@ -3965,7 +3967,7 @@
         <v>2040</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>25</v>
@@ -3985,7 +3987,7 @@
         <v>2040</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>25</v>
@@ -4005,7 +4007,7 @@
         <v>2040</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>25</v>
@@ -4025,7 +4027,7 @@
         <v>2040</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>25</v>
@@ -4045,7 +4047,7 @@
         <v>2040</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>25</v>
@@ -4065,7 +4067,7 @@
         <v>2040</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>25</v>
@@ -4085,7 +4087,7 @@
         <v>2040</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>25</v>
@@ -4105,7 +4107,7 @@
         <v>2040</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>25</v>
@@ -4125,7 +4127,7 @@
         <v>2040</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>25</v>
@@ -4145,7 +4147,7 @@
         <v>2040</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>25</v>
@@ -4165,7 +4167,7 @@
         <v>2040</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>25</v>
@@ -4185,7 +4187,7 @@
         <v>2040</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>25</v>
@@ -4205,7 +4207,7 @@
         <v>2040</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>25</v>
@@ -4225,7 +4227,7 @@
         <v>2040</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>25</v>
@@ -4245,7 +4247,7 @@
         <v>2040</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>25</v>
@@ -4265,7 +4267,7 @@
         <v>2040</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>25</v>
@@ -4285,7 +4287,7 @@
         <v>2040</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>25</v>
@@ -4305,7 +4307,7 @@
         <v>2040</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>25</v>
@@ -4325,7 +4327,7 @@
         <v>2040</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>25</v>
@@ -4345,7 +4347,7 @@
         <v>2040</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>25</v>
@@ -4365,7 +4367,7 @@
         <v>2040</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F193" s="4" t="s">
         <v>25</v>
@@ -4385,7 +4387,7 @@
         <v>2040</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F194" s="4" t="s">
         <v>25</v>
@@ -4405,7 +4407,7 @@
         <v>2040</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F195" s="4" t="s">
         <v>25</v>
@@ -4425,7 +4427,7 @@
         <v>2040</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>25</v>
@@ -4445,7 +4447,7 @@
         <v>2040</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F197" s="4" t="s">
         <v>25</v>
@@ -4465,7 +4467,7 @@
         <v>2040</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>25</v>
@@ -4485,7 +4487,7 @@
         <v>2040</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F199" s="4" t="s">
         <v>25</v>
@@ -4505,7 +4507,7 @@
         <v>2040</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F200" s="4" t="s">
         <v>25</v>
@@ -4525,7 +4527,7 @@
         <v>2040</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>25</v>
@@ -4545,7 +4547,7 @@
         <v>2040</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F202" s="4" t="s">
         <v>25</v>
@@ -4565,7 +4567,7 @@
         <v>2040</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F203" s="4" t="s">
         <v>25</v>
@@ -4585,7 +4587,7 @@
         <v>2040</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F204" s="4" t="s">
         <v>25</v>
@@ -4605,7 +4607,7 @@
         <v>2040</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F205" s="4" t="s">
         <v>25</v>
@@ -4625,7 +4627,7 @@
         <v>2040</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>25</v>
@@ -4645,7 +4647,7 @@
         <v>2040</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F207" s="4" t="s">
         <v>25</v>
@@ -4665,7 +4667,7 @@
         <v>2040</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F208" s="4" t="s">
         <v>25</v>
@@ -4685,7 +4687,7 @@
         <v>2040</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>25</v>
@@ -4705,7 +4707,7 @@
         <v>2040</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>25</v>
@@ -4725,7 +4727,7 @@
         <v>2040</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>25</v>
@@ -4745,7 +4747,7 @@
         <v>2040</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>25</v>
@@ -4765,7 +4767,7 @@
         <v>2040</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>25</v>
@@ -4785,7 +4787,7 @@
         <v>2040</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>25</v>
@@ -4805,7 +4807,7 @@
         <v>2040</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>25</v>
@@ -4825,7 +4827,7 @@
         <v>2040</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F216" s="4" t="s">
         <v>25</v>
@@ -4845,7 +4847,7 @@
         <v>2040</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F217" s="4" t="s">
         <v>25</v>
@@ -4865,7 +4867,7 @@
         <v>2040</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F218" s="4" t="s">
         <v>25</v>
@@ -4885,7 +4887,7 @@
         <v>2040</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F219" s="4" t="s">
         <v>25</v>
@@ -4905,7 +4907,7 @@
         <v>2040</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>25</v>
@@ -4925,7 +4927,7 @@
         <v>2040</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F221" s="4" t="s">
         <v>25</v>
@@ -4945,7 +4947,7 @@
         <v>2040</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F222" s="4" t="s">
         <v>25</v>
@@ -4965,7 +4967,7 @@
         <v>2040</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F223" s="4" t="s">
         <v>25</v>
@@ -4985,7 +4987,7 @@
         <v>2040</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>25</v>
@@ -5005,7 +5007,7 @@
         <v>2040</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>25</v>
@@ -5025,7 +5027,7 @@
         <v>2040</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>25</v>
@@ -5045,7 +5047,7 @@
         <v>2040</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F227" s="4" t="s">
         <v>25</v>
@@ -5065,7 +5067,7 @@
         <v>2040</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>25</v>
@@ -5085,7 +5087,7 @@
         <v>2040</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F229" s="4" t="s">
         <v>25</v>
@@ -5105,7 +5107,7 @@
         <v>2040</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F230" s="4" t="s">
         <v>25</v>
@@ -5125,7 +5127,7 @@
         <v>2040</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>25</v>
@@ -5145,7 +5147,7 @@
         <v>2040</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F232" s="4" t="s">
         <v>25</v>
@@ -5165,7 +5167,7 @@
         <v>2040</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F233" s="4" t="s">
         <v>25</v>
@@ -5185,7 +5187,7 @@
         <v>2040</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F234" s="4" t="s">
         <v>25</v>
@@ -5205,7 +5207,7 @@
         <v>2040</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F235" s="4" t="s">
         <v>25</v>
@@ -5225,7 +5227,7 @@
         <v>2040</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F236" s="4" t="s">
         <v>25</v>
@@ -5245,7 +5247,7 @@
         <v>2040</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F237" s="4" t="s">
         <v>25</v>
@@ -5265,7 +5267,7 @@
         <v>2040</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>25</v>
@@ -5285,7 +5287,7 @@
         <v>2040</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>25</v>
@@ -5305,7 +5307,7 @@
         <v>2040</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F240" s="4" t="s">
         <v>25</v>
@@ -5325,7 +5327,7 @@
         <v>2040</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F241" s="4" t="s">
         <v>25</v>
@@ -5345,7 +5347,7 @@
         <v>2040</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>25</v>
@@ -5365,7 +5367,7 @@
         <v>2040</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F243" s="4" t="s">
         <v>25</v>
@@ -5385,7 +5387,7 @@
         <v>2040</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>25</v>
@@ -5405,7 +5407,7 @@
         <v>2040</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F245" s="4" t="s">
         <v>25</v>
@@ -5425,7 +5427,7 @@
         <v>2040</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>25</v>
@@ -5445,7 +5447,7 @@
         <v>2040</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F247" s="4" t="s">
         <v>25</v>
@@ -5465,7 +5467,7 @@
         <v>2040</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F248" s="4" t="s">
         <v>25</v>
@@ -5485,7 +5487,7 @@
         <v>2040</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>25</v>
@@ -5505,7 +5507,7 @@
         <v>2040</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>25</v>
@@ -5525,7 +5527,7 @@
         <v>2040</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>25</v>
@@ -5545,7 +5547,7 @@
         <v>2040</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>25</v>
@@ -5565,7 +5567,7 @@
         <v>2040</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F253" s="4" t="s">
         <v>25</v>
@@ -5585,7 +5587,7 @@
         <v>2040</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F254" s="4" t="s">
         <v>25</v>
@@ -5605,7 +5607,7 @@
         <v>2040</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F255" s="4" t="s">
         <v>25</v>
@@ -5625,7 +5627,7 @@
         <v>2040</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F256" s="4" t="s">
         <v>25</v>
@@ -5645,7 +5647,7 @@
         <v>2040</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F257" s="4" t="s">
         <v>25</v>
@@ -5665,7 +5667,7 @@
         <v>2040</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F258" s="4" t="s">
         <v>25</v>
@@ -5685,7 +5687,7 @@
         <v>2040</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F259" s="4" t="s">
         <v>25</v>
@@ -5705,7 +5707,7 @@
         <v>2040</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F260" s="4" t="s">
         <v>25</v>
@@ -5725,7 +5727,7 @@
         <v>2040</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F261" s="4" t="s">
         <v>25</v>
@@ -5745,7 +5747,7 @@
         <v>2040</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F262" s="4" t="s">
         <v>25</v>
@@ -5765,7 +5767,7 @@
         <v>2040</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F263" s="4" t="s">
         <v>25</v>
@@ -5785,7 +5787,7 @@
         <v>2040</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F264" s="4" t="s">
         <v>25</v>
@@ -5805,7 +5807,7 @@
         <v>2040</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F265" s="4" t="s">
         <v>25</v>
@@ -5825,7 +5827,7 @@
         <v>2040</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F266" s="4" t="s">
         <v>25</v>
@@ -5845,7 +5847,7 @@
         <v>2040</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F267" s="4" t="s">
         <v>25</v>
@@ -5865,7 +5867,7 @@
         <v>2040</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F268" s="4" t="s">
         <v>25</v>
@@ -5885,7 +5887,7 @@
         <v>2040</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F269" s="4" t="s">
         <v>25</v>
@@ -5905,7 +5907,7 @@
         <v>2040</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F270" s="4" t="s">
         <v>25</v>
@@ -5925,7 +5927,7 @@
         <v>2040</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F271" s="4" t="s">
         <v>25</v>
@@ -5945,7 +5947,7 @@
         <v>2040</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F272" s="4" t="s">
         <v>25</v>
@@ -5965,7 +5967,7 @@
         <v>2040</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F273" s="4" t="s">
         <v>25</v>
@@ -5985,7 +5987,7 @@
         <v>2040</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F274" s="4" t="s">
         <v>25</v>
@@ -6005,7 +6007,7 @@
         <v>2040</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F275" s="4" t="s">
         <v>25</v>
@@ -6025,7 +6027,7 @@
         <v>2040</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F276" s="4" t="s">
         <v>25</v>
@@ -6045,7 +6047,7 @@
         <v>2040</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F277" s="4" t="s">
         <v>25</v>
@@ -6065,7 +6067,7 @@
         <v>2040</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F278" s="4" t="s">
         <v>25</v>
@@ -6085,7 +6087,7 @@
         <v>2040</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F279" s="4" t="s">
         <v>25</v>
@@ -6105,7 +6107,7 @@
         <v>2040</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F280" s="4" t="s">
         <v>25</v>
@@ -6125,7 +6127,7 @@
         <v>2040</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F281" s="4" t="s">
         <v>25</v>
@@ -6145,7 +6147,7 @@
         <v>2040</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F282" s="4" t="s">
         <v>25</v>
@@ -6165,7 +6167,7 @@
         <v>2040</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F283" s="4" t="s">
         <v>25</v>
@@ -6185,7 +6187,7 @@
         <v>2040</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F284" s="4" t="s">
         <v>25</v>
@@ -6205,7 +6207,7 @@
         <v>2040</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F285" s="4" t="s">
         <v>25</v>
@@ -6225,7 +6227,7 @@
         <v>2040</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F286" s="4" t="s">
         <v>25</v>
@@ -6245,7 +6247,7 @@
         <v>2040</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F287" s="4" t="s">
         <v>25</v>
@@ -6265,7 +6267,7 @@
         <v>2040</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F288" s="4" t="s">
         <v>25</v>
@@ -6285,7 +6287,7 @@
         <v>2040</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F289" s="4" t="s">
         <v>25</v>
@@ -6305,7 +6307,7 @@
         <v>2040</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F290" s="4" t="s">
         <v>25</v>
@@ -6325,7 +6327,7 @@
         <v>2040</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F291" s="4" t="s">
         <v>25</v>
@@ -6345,7 +6347,7 @@
         <v>2040</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F292" s="4" t="s">
         <v>25</v>
@@ -6365,7 +6367,7 @@
         <v>2040</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F293" s="4" t="s">
         <v>25</v>
@@ -6385,7 +6387,7 @@
         <v>2040</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F294" s="4" t="s">
         <v>25</v>
@@ -6405,7 +6407,7 @@
         <v>2040</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F295" s="4" t="s">
         <v>25</v>
@@ -6425,7 +6427,7 @@
         <v>2040</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F296" s="4" t="s">
         <v>25</v>
@@ -6445,7 +6447,7 @@
         <v>2040</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F297" s="4" t="s">
         <v>25</v>
@@ -6465,7 +6467,7 @@
         <v>2040</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F298" s="4" t="s">
         <v>25</v>
@@ -6485,7 +6487,7 @@
         <v>2040</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F299" s="4" t="s">
         <v>25</v>
@@ -6505,7 +6507,7 @@
         <v>2040</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F300" s="4" t="s">
         <v>25</v>
@@ -6525,7 +6527,7 @@
         <v>2040</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F301" s="4" t="s">
         <v>25</v>
@@ -6545,7 +6547,7 @@
         <v>2040</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F302" s="4" t="s">
         <v>25</v>
@@ -6565,7 +6567,7 @@
         <v>2040</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F303" s="4" t="s">
         <v>25</v>
@@ -6585,7 +6587,7 @@
         <v>2040</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F304" s="4" t="s">
         <v>25</v>
@@ -6605,7 +6607,7 @@
         <v>2040</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F305" s="4" t="s">
         <v>25</v>
@@ -6625,7 +6627,7 @@
         <v>2040</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F306" s="4" t="s">
         <v>25</v>
@@ -6645,7 +6647,7 @@
         <v>2040</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F307" s="4" t="s">
         <v>25</v>
@@ -6665,7 +6667,7 @@
         <v>2040</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F308" s="4" t="s">
         <v>25</v>
@@ -6685,7 +6687,7 @@
         <v>2040</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F309" s="4" t="s">
         <v>25</v>
@@ -6705,7 +6707,7 @@
         <v>2040</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F310" s="4" t="s">
         <v>25</v>
@@ -6725,7 +6727,7 @@
         <v>2040</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F311" s="4" t="s">
         <v>25</v>
@@ -6745,7 +6747,7 @@
         <v>2040</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F312" s="4" t="s">
         <v>25</v>
@@ -6765,7 +6767,7 @@
         <v>2040</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F313" s="4" t="s">
         <v>25</v>
@@ -6785,7 +6787,7 @@
         <v>2040</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F314" s="4" t="s">
         <v>25</v>
@@ -6805,7 +6807,7 @@
         <v>2040</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F315" s="4" t="s">
         <v>25</v>
@@ -6825,7 +6827,7 @@
         <v>2040</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F316" s="4" t="s">
         <v>25</v>
@@ -6845,7 +6847,7 @@
         <v>2040</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F317" s="4" t="s">
         <v>25</v>
@@ -6865,7 +6867,7 @@
         <v>2040</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F318" s="4" t="s">
         <v>25</v>
@@ -6885,7 +6887,7 @@
         <v>2040</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F319" s="4" t="s">
         <v>25</v>
@@ -6905,7 +6907,7 @@
         <v>2040</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F320" s="4" t="s">
         <v>25</v>
@@ -6925,7 +6927,7 @@
         <v>2040</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F321" s="4" t="s">
         <v>25</v>
@@ -6945,7 +6947,7 @@
         <v>2040</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F322" s="4" t="s">
         <v>25</v>
@@ -6965,7 +6967,7 @@
         <v>2040</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F323" s="4" t="s">
         <v>25</v>
@@ -6985,7 +6987,7 @@
         <v>2040</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F324" s="4" t="s">
         <v>25</v>
@@ -7005,7 +7007,7 @@
         <v>2040</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F325" s="4" t="s">
         <v>25</v>
@@ -7025,7 +7027,7 @@
         <v>2040</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F326" s="4" t="s">
         <v>25</v>
@@ -7045,7 +7047,7 @@
         <v>2040</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F327" s="4" t="s">
         <v>25</v>
@@ -7065,7 +7067,7 @@
         <v>2040</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F328" s="4" t="s">
         <v>25</v>
@@ -7085,7 +7087,7 @@
         <v>2040</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F329" s="4" t="s">
         <v>25</v>
@@ -7105,7 +7107,7 @@
         <v>2040</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F330" s="4" t="s">
         <v>25</v>
@@ -7125,7 +7127,7 @@
         <v>2040</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F331" s="4" t="s">
         <v>25</v>
@@ -7145,7 +7147,7 @@
         <v>2040</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F332" s="4" t="s">
         <v>25</v>
@@ -7165,7 +7167,7 @@
         <v>2040</v>
       </c>
       <c r="E333" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F333" s="4" t="s">
         <v>25</v>
@@ -7185,7 +7187,7 @@
         <v>2040</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F334" s="4" t="s">
         <v>25</v>
@@ -7205,7 +7207,7 @@
         <v>2040</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F335" s="4" t="s">
         <v>25</v>
@@ -7225,7 +7227,7 @@
         <v>2040</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F336" s="4" t="s">
         <v>25</v>
@@ -7245,7 +7247,7 @@
         <v>2040</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F337" s="4" t="s">
         <v>25</v>
@@ -7265,7 +7267,7 @@
         <v>2040</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F338" s="4" t="s">
         <v>25</v>
@@ -7285,7 +7287,7 @@
         <v>2040</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F339" s="4" t="s">
         <v>25</v>
@@ -7305,7 +7307,7 @@
         <v>2040</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F340" s="4" t="s">
         <v>25</v>
@@ -7325,7 +7327,7 @@
         <v>2040</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F341" s="4" t="s">
         <v>25</v>
@@ -7345,7 +7347,7 @@
         <v>2040</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F342" s="4" t="s">
         <v>25</v>
@@ -7365,7 +7367,7 @@
         <v>2040</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F343" s="4" t="s">
         <v>25</v>
@@ -7385,7 +7387,7 @@
         <v>2060</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F344" s="4" t="s">
         <v>25</v>
@@ -7405,7 +7407,7 @@
         <v>2060</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F345" s="4" t="s">
         <v>25</v>
@@ -7425,7 +7427,7 @@
         <v>2060</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F346" s="4" t="s">
         <v>25</v>
@@ -7445,7 +7447,7 @@
         <v>2060</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F347" s="4" t="s">
         <v>25</v>
@@ -7465,7 +7467,7 @@
         <v>2060</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F348" s="4" t="s">
         <v>25</v>
@@ -7485,7 +7487,7 @@
         <v>2060</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F349" s="4" t="s">
         <v>25</v>
@@ -7505,7 +7507,7 @@
         <v>2060</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F350" s="4" t="s">
         <v>25</v>
@@ -7525,7 +7527,7 @@
         <v>2060</v>
       </c>
       <c r="E351" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F351" s="4" t="s">
         <v>25</v>
@@ -7545,7 +7547,7 @@
         <v>2060</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F352" s="4" t="s">
         <v>25</v>
@@ -7565,7 +7567,7 @@
         <v>2060</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F353" s="4" t="s">
         <v>25</v>
@@ -7585,7 +7587,7 @@
         <v>2060</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F354" s="4" t="s">
         <v>25</v>
@@ -7605,7 +7607,7 @@
         <v>2060</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F355" s="4" t="s">
         <v>25</v>
@@ -7625,7 +7627,7 @@
         <v>2060</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F356" s="4" t="s">
         <v>25</v>
@@ -7645,7 +7647,7 @@
         <v>2060</v>
       </c>
       <c r="E357" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F357" s="4" t="s">
         <v>25</v>
@@ -7665,7 +7667,7 @@
         <v>2060</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F358" s="4" t="s">
         <v>25</v>
@@ -7685,7 +7687,7 @@
         <v>2060</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F359" s="4" t="s">
         <v>25</v>
@@ -7705,7 +7707,7 @@
         <v>2060</v>
       </c>
       <c r="E360" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F360" s="4" t="s">
         <v>25</v>
@@ -7725,7 +7727,7 @@
         <v>2060</v>
       </c>
       <c r="E361" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F361" s="4" t="s">
         <v>25</v>
@@ -7745,7 +7747,7 @@
         <v>2060</v>
       </c>
       <c r="E362" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F362" s="4" t="s">
         <v>25</v>
@@ -7765,7 +7767,7 @@
         <v>2060</v>
       </c>
       <c r="E363" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F363" s="4" t="s">
         <v>25</v>
@@ -7785,7 +7787,7 @@
         <v>2060</v>
       </c>
       <c r="E364" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F364" s="4" t="s">
         <v>25</v>
@@ -7805,7 +7807,7 @@
         <v>2060</v>
       </c>
       <c r="E365" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F365" s="4" t="s">
         <v>25</v>
@@ -7825,7 +7827,7 @@
         <v>2060</v>
       </c>
       <c r="E366" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F366" s="4" t="s">
         <v>25</v>
@@ -7845,7 +7847,7 @@
         <v>2060</v>
       </c>
       <c r="E367" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F367" s="4" t="s">
         <v>25</v>
@@ -7865,7 +7867,7 @@
         <v>2060</v>
       </c>
       <c r="E368" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F368" s="4" t="s">
         <v>25</v>
@@ -7885,7 +7887,7 @@
         <v>2060</v>
       </c>
       <c r="E369" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F369" s="4" t="s">
         <v>25</v>
@@ -7905,7 +7907,7 @@
         <v>2060</v>
       </c>
       <c r="E370" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F370" s="4" t="s">
         <v>25</v>
@@ -7925,7 +7927,7 @@
         <v>2060</v>
       </c>
       <c r="E371" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F371" s="4" t="s">
         <v>25</v>
@@ -7945,7 +7947,7 @@
         <v>2060</v>
       </c>
       <c r="E372" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F372" s="4" t="s">
         <v>25</v>
@@ -7965,7 +7967,7 @@
         <v>2060</v>
       </c>
       <c r="E373" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F373" s="4" t="s">
         <v>25</v>
@@ -7985,7 +7987,7 @@
         <v>2060</v>
       </c>
       <c r="E374" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F374" s="4" t="s">
         <v>25</v>
@@ -8005,7 +8007,7 @@
         <v>2060</v>
       </c>
       <c r="E375" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F375" s="4" t="s">
         <v>25</v>
@@ -8025,7 +8027,7 @@
         <v>2060</v>
       </c>
       <c r="E376" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F376" s="4" t="s">
         <v>25</v>
@@ -8045,7 +8047,7 @@
         <v>2060</v>
       </c>
       <c r="E377" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F377" s="4" t="s">
         <v>25</v>
@@ -8065,7 +8067,7 @@
         <v>2060</v>
       </c>
       <c r="E378" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F378" s="4" t="s">
         <v>25</v>
@@ -8085,7 +8087,7 @@
         <v>2060</v>
       </c>
       <c r="E379" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F379" s="4" t="s">
         <v>25</v>
@@ -8105,7 +8107,7 @@
         <v>2060</v>
       </c>
       <c r="E380" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F380" s="4" t="s">
         <v>25</v>
@@ -8125,7 +8127,7 @@
         <v>2060</v>
       </c>
       <c r="E381" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F381" s="4" t="s">
         <v>25</v>
@@ -8145,7 +8147,7 @@
         <v>2060</v>
       </c>
       <c r="E382" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F382" s="4" t="s">
         <v>25</v>
@@ -8165,7 +8167,7 @@
         <v>2060</v>
       </c>
       <c r="E383" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F383" s="4" t="s">
         <v>25</v>
@@ -8185,7 +8187,7 @@
         <v>2060</v>
       </c>
       <c r="E384" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F384" s="4" t="s">
         <v>25</v>
@@ -8205,7 +8207,7 @@
         <v>2060</v>
       </c>
       <c r="E385" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F385" s="4" t="s">
         <v>25</v>
@@ -8225,7 +8227,7 @@
         <v>2060</v>
       </c>
       <c r="E386" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F386" s="4" t="s">
         <v>25</v>
@@ -8245,7 +8247,7 @@
         <v>2060</v>
       </c>
       <c r="E387" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F387" s="4" t="s">
         <v>25</v>
@@ -8265,7 +8267,7 @@
         <v>2060</v>
       </c>
       <c r="E388" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F388" s="4" t="s">
         <v>25</v>
@@ -8285,7 +8287,7 @@
         <v>2060</v>
       </c>
       <c r="E389" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F389" s="4" t="s">
         <v>25</v>
@@ -8305,7 +8307,7 @@
         <v>2060</v>
       </c>
       <c r="E390" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F390" s="4" t="s">
         <v>25</v>
@@ -8325,7 +8327,7 @@
         <v>2060</v>
       </c>
       <c r="E391" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F391" s="4" t="s">
         <v>25</v>
@@ -8345,7 +8347,7 @@
         <v>2060</v>
       </c>
       <c r="E392" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F392" s="4" t="s">
         <v>25</v>
@@ -8365,7 +8367,7 @@
         <v>2060</v>
       </c>
       <c r="E393" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F393" s="4" t="s">
         <v>25</v>
@@ -8385,7 +8387,7 @@
         <v>2060</v>
       </c>
       <c r="E394" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F394" s="4" t="s">
         <v>25</v>
@@ -8405,7 +8407,7 @@
         <v>2060</v>
       </c>
       <c r="E395" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F395" s="4" t="s">
         <v>25</v>
@@ -8425,7 +8427,7 @@
         <v>2060</v>
       </c>
       <c r="E396" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F396" s="4" t="s">
         <v>25</v>
@@ -8445,7 +8447,7 @@
         <v>2060</v>
       </c>
       <c r="E397" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F397" s="4" t="s">
         <v>25</v>
@@ -8465,7 +8467,7 @@
         <v>2060</v>
       </c>
       <c r="E398" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F398" s="4" t="s">
         <v>25</v>
@@ -8485,7 +8487,7 @@
         <v>2060</v>
       </c>
       <c r="E399" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F399" s="4" t="s">
         <v>25</v>
@@ -8505,7 +8507,7 @@
         <v>2060</v>
       </c>
       <c r="E400" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F400" s="4" t="s">
         <v>25</v>
@@ -8525,7 +8527,7 @@
         <v>2060</v>
       </c>
       <c r="E401" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F401" s="4" t="s">
         <v>25</v>
@@ -8545,7 +8547,7 @@
         <v>2060</v>
       </c>
       <c r="E402" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F402" s="4" t="s">
         <v>25</v>
@@ -8565,7 +8567,7 @@
         <v>2060</v>
       </c>
       <c r="E403" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F403" s="4" t="s">
         <v>25</v>
@@ -8585,7 +8587,7 @@
         <v>2060</v>
       </c>
       <c r="E404" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F404" s="4" t="s">
         <v>25</v>
@@ -8605,7 +8607,7 @@
         <v>2060</v>
       </c>
       <c r="E405" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F405" s="4" t="s">
         <v>25</v>
@@ -8625,7 +8627,7 @@
         <v>2060</v>
       </c>
       <c r="E406" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F406" s="4" t="s">
         <v>25</v>
@@ -8645,7 +8647,7 @@
         <v>2060</v>
       </c>
       <c r="E407" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F407" s="4" t="s">
         <v>25</v>
@@ -8665,7 +8667,7 @@
         <v>2060</v>
       </c>
       <c r="E408" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F408" s="4" t="s">
         <v>25</v>
@@ -8685,7 +8687,7 @@
         <v>2060</v>
       </c>
       <c r="E409" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F409" s="4" t="s">
         <v>25</v>
@@ -8705,7 +8707,7 @@
         <v>2060</v>
       </c>
       <c r="E410" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F410" s="4" t="s">
         <v>25</v>
@@ -8725,7 +8727,7 @@
         <v>2060</v>
       </c>
       <c r="E411" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F411" s="4" t="s">
         <v>25</v>
@@ -8745,7 +8747,7 @@
         <v>2060</v>
       </c>
       <c r="E412" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F412" s="4" t="s">
         <v>25</v>
@@ -8765,7 +8767,7 @@
         <v>2060</v>
       </c>
       <c r="E413" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F413" s="4" t="s">
         <v>25</v>
@@ -8785,7 +8787,7 @@
         <v>2060</v>
       </c>
       <c r="E414" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F414" s="4" t="s">
         <v>25</v>
@@ -8805,7 +8807,7 @@
         <v>2060</v>
       </c>
       <c r="E415" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F415" s="4" t="s">
         <v>25</v>
@@ -8825,7 +8827,7 @@
         <v>2060</v>
       </c>
       <c r="E416" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F416" s="4" t="s">
         <v>25</v>
@@ -8845,7 +8847,7 @@
         <v>2060</v>
       </c>
       <c r="E417" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F417" s="4" t="s">
         <v>25</v>
@@ -8865,7 +8867,7 @@
         <v>2060</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F418" s="4" t="s">
         <v>25</v>
@@ -8885,7 +8887,7 @@
         <v>2060</v>
       </c>
       <c r="E419" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F419" s="4" t="s">
         <v>25</v>
@@ -8905,7 +8907,7 @@
         <v>2060</v>
       </c>
       <c r="E420" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F420" s="4" t="s">
         <v>25</v>
@@ -8925,7 +8927,7 @@
         <v>2060</v>
       </c>
       <c r="E421" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F421" s="4" t="s">
         <v>25</v>
@@ -8945,7 +8947,7 @@
         <v>2060</v>
       </c>
       <c r="E422" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F422" s="4" t="s">
         <v>25</v>
@@ -8965,7 +8967,7 @@
         <v>2060</v>
       </c>
       <c r="E423" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F423" s="4" t="s">
         <v>25</v>
@@ -8985,7 +8987,7 @@
         <v>2060</v>
       </c>
       <c r="E424" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F424" s="4" t="s">
         <v>25</v>
@@ -9005,7 +9007,7 @@
         <v>2060</v>
       </c>
       <c r="E425" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F425" s="4" t="s">
         <v>25</v>
@@ -9025,7 +9027,7 @@
         <v>2060</v>
       </c>
       <c r="E426" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F426" s="4" t="s">
         <v>25</v>
@@ -9045,7 +9047,7 @@
         <v>2060</v>
       </c>
       <c r="E427" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F427" s="4" t="s">
         <v>25</v>
@@ -9065,7 +9067,7 @@
         <v>2060</v>
       </c>
       <c r="E428" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F428" s="4" t="s">
         <v>25</v>
@@ -9085,7 +9087,7 @@
         <v>2060</v>
       </c>
       <c r="E429" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F429" s="4" t="s">
         <v>25</v>
@@ -9105,7 +9107,7 @@
         <v>2060</v>
       </c>
       <c r="E430" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F430" s="4" t="s">
         <v>25</v>
@@ -9125,7 +9127,7 @@
         <v>2060</v>
       </c>
       <c r="E431" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F431" s="4" t="s">
         <v>25</v>
@@ -9145,7 +9147,7 @@
         <v>2060</v>
       </c>
       <c r="E432" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F432" s="4" t="s">
         <v>25</v>
@@ -9165,7 +9167,7 @@
         <v>2060</v>
       </c>
       <c r="E433" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F433" s="4" t="s">
         <v>25</v>
@@ -9185,7 +9187,7 @@
         <v>2060</v>
       </c>
       <c r="E434" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F434" s="4" t="s">
         <v>25</v>
@@ -9205,7 +9207,7 @@
         <v>2060</v>
       </c>
       <c r="E435" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F435" s="4" t="s">
         <v>25</v>
@@ -9225,7 +9227,7 @@
         <v>2060</v>
       </c>
       <c r="E436" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F436" s="4" t="s">
         <v>25</v>
@@ -9245,7 +9247,7 @@
         <v>2060</v>
       </c>
       <c r="E437" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F437" s="4" t="s">
         <v>25</v>
@@ -9265,7 +9267,7 @@
         <v>2060</v>
       </c>
       <c r="E438" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F438" s="4" t="s">
         <v>25</v>
@@ -9285,7 +9287,7 @@
         <v>2060</v>
       </c>
       <c r="E439" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F439" s="4" t="s">
         <v>25</v>
@@ -9305,7 +9307,7 @@
         <v>2060</v>
       </c>
       <c r="E440" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F440" s="4" t="s">
         <v>25</v>
@@ -9325,7 +9327,7 @@
         <v>2060</v>
       </c>
       <c r="E441" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F441" s="4" t="s">
         <v>25</v>
@@ -9345,7 +9347,7 @@
         <v>2060</v>
       </c>
       <c r="E442" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F442" s="4" t="s">
         <v>25</v>
@@ -9365,7 +9367,7 @@
         <v>2060</v>
       </c>
       <c r="E443" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F443" s="4" t="s">
         <v>25</v>
@@ -9385,7 +9387,7 @@
         <v>2060</v>
       </c>
       <c r="E444" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F444" s="4" t="s">
         <v>25</v>
@@ -9405,7 +9407,7 @@
         <v>2060</v>
       </c>
       <c r="E445" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F445" s="4" t="s">
         <v>25</v>
@@ -9425,7 +9427,7 @@
         <v>2060</v>
       </c>
       <c r="E446" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F446" s="4" t="s">
         <v>25</v>
@@ -9445,7 +9447,7 @@
         <v>2060</v>
       </c>
       <c r="E447" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F447" s="4" t="s">
         <v>25</v>
@@ -9465,7 +9467,7 @@
         <v>2060</v>
       </c>
       <c r="E448" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F448" s="4" t="s">
         <v>25</v>
@@ -9485,7 +9487,7 @@
         <v>2060</v>
       </c>
       <c r="E449" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F449" s="4" t="s">
         <v>25</v>
@@ -9505,7 +9507,7 @@
         <v>2060</v>
       </c>
       <c r="E450" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F450" s="4" t="s">
         <v>25</v>
@@ -9525,7 +9527,7 @@
         <v>2060</v>
       </c>
       <c r="E451" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F451" s="4" t="s">
         <v>25</v>
@@ -9545,7 +9547,7 @@
         <v>2060</v>
       </c>
       <c r="E452" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F452" s="4" t="s">
         <v>25</v>
@@ -9565,7 +9567,7 @@
         <v>2060</v>
       </c>
       <c r="E453" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F453" s="4" t="s">
         <v>25</v>
@@ -9585,7 +9587,7 @@
         <v>2060</v>
       </c>
       <c r="E454" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F454" s="4" t="s">
         <v>25</v>
@@ -9605,7 +9607,7 @@
         <v>2060</v>
       </c>
       <c r="E455" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F455" s="4" t="s">
         <v>25</v>
@@ -9625,7 +9627,7 @@
         <v>2060</v>
       </c>
       <c r="E456" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F456" s="4" t="s">
         <v>25</v>
@@ -9645,7 +9647,7 @@
         <v>2060</v>
       </c>
       <c r="E457" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F457" s="4" t="s">
         <v>25</v>
@@ -9665,7 +9667,7 @@
         <v>2060</v>
       </c>
       <c r="E458" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F458" s="4" t="s">
         <v>25</v>
@@ -9685,7 +9687,7 @@
         <v>2060</v>
       </c>
       <c r="E459" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F459" s="4" t="s">
         <v>25</v>
@@ -9705,7 +9707,7 @@
         <v>2060</v>
       </c>
       <c r="E460" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F460" s="4" t="s">
         <v>25</v>
@@ -9725,7 +9727,7 @@
         <v>2060</v>
       </c>
       <c r="E461" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F461" s="4" t="s">
         <v>25</v>
@@ -9745,7 +9747,7 @@
         <v>2060</v>
       </c>
       <c r="E462" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F462" s="4" t="s">
         <v>25</v>
@@ -9765,7 +9767,7 @@
         <v>2060</v>
       </c>
       <c r="E463" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F463" s="4" t="s">
         <v>25</v>
@@ -9785,7 +9787,7 @@
         <v>2060</v>
       </c>
       <c r="E464" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F464" s="4" t="s">
         <v>25</v>
@@ -9805,7 +9807,7 @@
         <v>2060</v>
       </c>
       <c r="E465" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F465" s="4" t="s">
         <v>25</v>
@@ -9825,7 +9827,7 @@
         <v>2060</v>
       </c>
       <c r="E466" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F466" s="4" t="s">
         <v>25</v>
@@ -9845,7 +9847,7 @@
         <v>2060</v>
       </c>
       <c r="E467" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F467" s="4" t="s">
         <v>25</v>
@@ -9865,7 +9867,7 @@
         <v>2060</v>
       </c>
       <c r="E468" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F468" s="4" t="s">
         <v>25</v>
@@ -9885,7 +9887,7 @@
         <v>2060</v>
       </c>
       <c r="E469" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F469" s="4" t="s">
         <v>25</v>
@@ -9905,7 +9907,7 @@
         <v>2060</v>
       </c>
       <c r="E470" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F470" s="4" t="s">
         <v>25</v>
@@ -9925,7 +9927,7 @@
         <v>2060</v>
       </c>
       <c r="E471" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F471" s="4" t="s">
         <v>25</v>
@@ -9945,7 +9947,7 @@
         <v>2060</v>
       </c>
       <c r="E472" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F472" s="4" t="s">
         <v>25</v>
@@ -9965,7 +9967,7 @@
         <v>2060</v>
       </c>
       <c r="E473" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F473" s="4" t="s">
         <v>25</v>
@@ -9985,7 +9987,7 @@
         <v>2060</v>
       </c>
       <c r="E474" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F474" s="4" t="s">
         <v>25</v>
@@ -10005,7 +10007,7 @@
         <v>2060</v>
       </c>
       <c r="E475" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F475" s="4" t="s">
         <v>25</v>
@@ -10025,7 +10027,7 @@
         <v>2060</v>
       </c>
       <c r="E476" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F476" s="4" t="s">
         <v>25</v>
@@ -10045,7 +10047,7 @@
         <v>2060</v>
       </c>
       <c r="E477" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F477" s="4" t="s">
         <v>25</v>
@@ -10065,7 +10067,7 @@
         <v>2060</v>
       </c>
       <c r="E478" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F478" s="4" t="s">
         <v>25</v>
@@ -10085,7 +10087,7 @@
         <v>2060</v>
       </c>
       <c r="E479" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F479" s="4" t="s">
         <v>25</v>
@@ -10105,7 +10107,7 @@
         <v>2060</v>
       </c>
       <c r="E480" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F480" s="4" t="s">
         <v>25</v>
@@ -10125,7 +10127,7 @@
         <v>2060</v>
       </c>
       <c r="E481" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F481" s="4" t="s">
         <v>25</v>
@@ -10145,7 +10147,7 @@
         <v>2060</v>
       </c>
       <c r="E482" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F482" s="4" t="s">
         <v>25</v>
@@ -10165,7 +10167,7 @@
         <v>2060</v>
       </c>
       <c r="E483" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F483" s="4" t="s">
         <v>25</v>
@@ -10185,7 +10187,7 @@
         <v>2060</v>
       </c>
       <c r="E484" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F484" s="4" t="s">
         <v>25</v>
@@ -10205,7 +10207,7 @@
         <v>2060</v>
       </c>
       <c r="E485" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F485" s="4" t="s">
         <v>25</v>
@@ -10225,7 +10227,7 @@
         <v>2060</v>
       </c>
       <c r="E486" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F486" s="4" t="s">
         <v>25</v>
@@ -10245,7 +10247,7 @@
         <v>2060</v>
       </c>
       <c r="E487" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F487" s="4" t="s">
         <v>25</v>
@@ -10265,7 +10267,7 @@
         <v>2060</v>
       </c>
       <c r="E488" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F488" s="4" t="s">
         <v>25</v>
@@ -10285,7 +10287,7 @@
         <v>2060</v>
       </c>
       <c r="E489" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F489" s="4" t="s">
         <v>25</v>
@@ -10305,7 +10307,7 @@
         <v>2060</v>
       </c>
       <c r="E490" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F490" s="4" t="s">
         <v>25</v>
@@ -10325,7 +10327,7 @@
         <v>2060</v>
       </c>
       <c r="E491" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F491" s="4" t="s">
         <v>25</v>
@@ -10345,7 +10347,7 @@
         <v>2060</v>
       </c>
       <c r="E492" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F492" s="4" t="s">
         <v>25</v>
@@ -10365,7 +10367,7 @@
         <v>2060</v>
       </c>
       <c r="E493" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F493" s="4" t="s">
         <v>25</v>
@@ -10385,7 +10387,7 @@
         <v>2060</v>
       </c>
       <c r="E494" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F494" s="4" t="s">
         <v>25</v>
@@ -10405,7 +10407,7 @@
         <v>2060</v>
       </c>
       <c r="E495" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F495" s="4" t="s">
         <v>25</v>
@@ -10425,7 +10427,7 @@
         <v>2060</v>
       </c>
       <c r="E496" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F496" s="4" t="s">
         <v>25</v>
@@ -10445,7 +10447,7 @@
         <v>2060</v>
       </c>
       <c r="E497" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F497" s="4" t="s">
         <v>25</v>
@@ -10465,7 +10467,7 @@
         <v>2060</v>
       </c>
       <c r="E498" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F498" s="4" t="s">
         <v>25</v>
@@ -10485,7 +10487,7 @@
         <v>2060</v>
       </c>
       <c r="E499" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F499" s="4" t="s">
         <v>25</v>
@@ -10505,7 +10507,7 @@
         <v>2060</v>
       </c>
       <c r="E500" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F500" s="4" t="s">
         <v>25</v>
@@ -10525,7 +10527,7 @@
         <v>2060</v>
       </c>
       <c r="E501" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F501" s="4" t="s">
         <v>25</v>
@@ -10545,7 +10547,7 @@
         <v>2060</v>
       </c>
       <c r="E502" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F502" s="4" t="s">
         <v>25</v>
@@ -10565,7 +10567,7 @@
         <v>2060</v>
       </c>
       <c r="E503" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F503" s="4" t="s">
         <v>25</v>
@@ -10585,7 +10587,7 @@
         <v>2060</v>
       </c>
       <c r="E504" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F504" s="4" t="s">
         <v>25</v>
@@ -10605,7 +10607,7 @@
         <v>2060</v>
       </c>
       <c r="E505" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F505" s="4" t="s">
         <v>25</v>
@@ -10625,7 +10627,7 @@
         <v>2060</v>
       </c>
       <c r="E506" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F506" s="4" t="s">
         <v>25</v>
@@ -10645,7 +10647,7 @@
         <v>2060</v>
       </c>
       <c r="E507" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F507" s="4" t="s">
         <v>25</v>
@@ -10665,7 +10667,7 @@
         <v>2060</v>
       </c>
       <c r="E508" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F508" s="4" t="s">
         <v>25</v>
@@ -10685,7 +10687,7 @@
         <v>2060</v>
       </c>
       <c r="E509" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F509" s="4" t="s">
         <v>25</v>
@@ -10705,7 +10707,7 @@
         <v>2060</v>
       </c>
       <c r="E510" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F510" s="4" t="s">
         <v>25</v>
@@ -10725,7 +10727,7 @@
         <v>2060</v>
       </c>
       <c r="E511" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F511" s="4" t="s">
         <v>25</v>
@@ -10745,7 +10747,7 @@
         <v>2060</v>
       </c>
       <c r="E512" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F512" s="4" t="s">
         <v>25</v>
@@ -10765,7 +10767,7 @@
         <v>2060</v>
       </c>
       <c r="E513" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F513" s="4" t="s">
         <v>25</v>
@@ -10785,7 +10787,7 @@
         <v>2060</v>
       </c>
       <c r="E514" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F514" s="4" t="s">
         <v>25</v>
@@ -10805,7 +10807,7 @@
         <v>2060</v>
       </c>
       <c r="E515" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F515" s="4" t="s">
         <v>25</v>
@@ -10825,7 +10827,7 @@
         <v>2060</v>
       </c>
       <c r="E516" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F516" s="4" t="s">
         <v>25</v>
@@ -10845,7 +10847,7 @@
         <v>2060</v>
       </c>
       <c r="E517" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F517" s="4" t="s">
         <v>25</v>
@@ -10865,7 +10867,7 @@
         <v>2060</v>
       </c>
       <c r="E518" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F518" s="4" t="s">
         <v>25</v>
@@ -10885,7 +10887,7 @@
         <v>2060</v>
       </c>
       <c r="E519" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F519" s="4" t="s">
         <v>25</v>
@@ -10905,7 +10907,7 @@
         <v>2060</v>
       </c>
       <c r="E520" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F520" s="4" t="s">
         <v>25</v>
@@ -10925,7 +10927,7 @@
         <v>2060</v>
       </c>
       <c r="E521" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F521" s="4" t="s">
         <v>25</v>
@@ -10945,7 +10947,7 @@
         <v>2060</v>
       </c>
       <c r="E522" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F522" s="4" t="s">
         <v>25</v>
@@ -10965,7 +10967,7 @@
         <v>2060</v>
       </c>
       <c r="E523" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F523" s="4" t="s">
         <v>25</v>
@@ -10985,7 +10987,7 @@
         <v>2060</v>
       </c>
       <c r="E524" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F524" s="4" t="s">
         <v>25</v>
@@ -11005,7 +11007,7 @@
         <v>2060</v>
       </c>
       <c r="E525" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F525" s="4" t="s">
         <v>25</v>
@@ -11025,7 +11027,7 @@
         <v>2060</v>
       </c>
       <c r="E526" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F526" s="4" t="s">
         <v>25</v>
@@ -11045,7 +11047,7 @@
         <v>2060</v>
       </c>
       <c r="E527" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F527" s="4" t="s">
         <v>25</v>
@@ -11065,7 +11067,7 @@
         <v>2060</v>
       </c>
       <c r="E528" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F528" s="4" t="s">
         <v>25</v>
@@ -11085,7 +11087,7 @@
         <v>2060</v>
       </c>
       <c r="E529" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F529" s="4" t="s">
         <v>25</v>
@@ -11105,7 +11107,7 @@
         <v>2060</v>
       </c>
       <c r="E530" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F530" s="4" t="s">
         <v>25</v>
@@ -11125,7 +11127,7 @@
         <v>2060</v>
       </c>
       <c r="E531" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F531" s="4" t="s">
         <v>25</v>
@@ -11145,7 +11147,7 @@
         <v>2060</v>
       </c>
       <c r="E532" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F532" s="4" t="s">
         <v>25</v>
@@ -11165,7 +11167,7 @@
         <v>2060</v>
       </c>
       <c r="E533" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F533" s="4" t="s">
         <v>25</v>
@@ -11185,7 +11187,7 @@
         <v>2060</v>
       </c>
       <c r="E534" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F534" s="4" t="s">
         <v>25</v>
@@ -11205,7 +11207,7 @@
         <v>2060</v>
       </c>
       <c r="E535" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F535" s="4" t="s">
         <v>25</v>
@@ -11225,7 +11227,7 @@
         <v>2060</v>
       </c>
       <c r="E536" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F536" s="4" t="s">
         <v>25</v>
@@ -11245,7 +11247,7 @@
         <v>2060</v>
       </c>
       <c r="E537" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F537" s="4" t="s">
         <v>25</v>
@@ -11265,7 +11267,7 @@
         <v>2060</v>
       </c>
       <c r="E538" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F538" s="4" t="s">
         <v>25</v>
@@ -11285,7 +11287,7 @@
         <v>2060</v>
       </c>
       <c r="E539" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F539" s="4" t="s">
         <v>25</v>
@@ -11305,7 +11307,7 @@
         <v>2060</v>
       </c>
       <c r="E540" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F540" s="4" t="s">
         <v>25</v>
@@ -11325,7 +11327,7 @@
         <v>2060</v>
       </c>
       <c r="E541" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F541" s="4" t="s">
         <v>25</v>
@@ -11345,7 +11347,7 @@
         <v>2060</v>
       </c>
       <c r="E542" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F542" s="4" t="s">
         <v>25</v>
@@ -11365,7 +11367,7 @@
         <v>2060</v>
       </c>
       <c r="E543" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F543" s="4" t="s">
         <v>25</v>
@@ -11385,7 +11387,7 @@
         <v>2060</v>
       </c>
       <c r="E544" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F544" s="4" t="s">
         <v>25</v>
@@ -11405,7 +11407,7 @@
         <v>2060</v>
       </c>
       <c r="E545" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F545" s="4" t="s">
         <v>25</v>
@@ -11425,7 +11427,7 @@
         <v>2060</v>
       </c>
       <c r="E546" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F546" s="4" t="s">
         <v>25</v>
@@ -11445,7 +11447,7 @@
         <v>2060</v>
       </c>
       <c r="E547" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F547" s="4" t="s">
         <v>25</v>
@@ -11465,7 +11467,7 @@
         <v>2060</v>
       </c>
       <c r="E548" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F548" s="4" t="s">
         <v>25</v>
@@ -11485,7 +11487,7 @@
         <v>2060</v>
       </c>
       <c r="E549" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F549" s="4" t="s">
         <v>25</v>
@@ -11505,7 +11507,7 @@
         <v>2060</v>
       </c>
       <c r="E550" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F550" s="4" t="s">
         <v>25</v>
@@ -11525,7 +11527,7 @@
         <v>2060</v>
       </c>
       <c r="E551" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F551" s="4" t="s">
         <v>25</v>
@@ -11545,7 +11547,7 @@
         <v>2060</v>
       </c>
       <c r="E552" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F552" s="4" t="s">
         <v>25</v>
@@ -11565,7 +11567,7 @@
         <v>2060</v>
       </c>
       <c r="E553" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F553" s="4" t="s">
         <v>25</v>
@@ -11585,7 +11587,7 @@
         <v>2060</v>
       </c>
       <c r="E554" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F554" s="4" t="s">
         <v>25</v>
@@ -11605,7 +11607,7 @@
         <v>2060</v>
       </c>
       <c r="E555" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F555" s="4" t="s">
         <v>25</v>
@@ -11625,7 +11627,7 @@
         <v>2060</v>
       </c>
       <c r="E556" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F556" s="4" t="s">
         <v>25</v>
@@ -11645,7 +11647,7 @@
         <v>2060</v>
       </c>
       <c r="E557" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F557" s="4" t="s">
         <v>25</v>
@@ -11665,7 +11667,7 @@
         <v>2060</v>
       </c>
       <c r="E558" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F558" s="4" t="s">
         <v>25</v>
@@ -11685,7 +11687,7 @@
         <v>2060</v>
       </c>
       <c r="E559" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F559" s="4" t="s">
         <v>25</v>
@@ -11705,7 +11707,7 @@
         <v>2060</v>
       </c>
       <c r="E560" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F560" s="4" t="s">
         <v>25</v>
@@ -11725,7 +11727,7 @@
         <v>2060</v>
       </c>
       <c r="E561" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F561" s="4" t="s">
         <v>25</v>
@@ -11745,7 +11747,7 @@
         <v>2060</v>
       </c>
       <c r="E562" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F562" s="4" t="s">
         <v>25</v>
@@ -11765,7 +11767,7 @@
         <v>2060</v>
       </c>
       <c r="E563" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F563" s="4" t="s">
         <v>25</v>
@@ -11785,7 +11787,7 @@
         <v>2060</v>
       </c>
       <c r="E564" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F564" s="4" t="s">
         <v>25</v>
@@ -11805,7 +11807,7 @@
         <v>2060</v>
       </c>
       <c r="E565" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F565" s="4" t="s">
         <v>25</v>
@@ -11825,7 +11827,7 @@
         <v>2060</v>
       </c>
       <c r="E566" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F566" s="4" t="s">
         <v>25</v>
@@ -11845,7 +11847,7 @@
         <v>2060</v>
       </c>
       <c r="E567" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F567" s="4" t="s">
         <v>25</v>
@@ -11865,7 +11867,7 @@
         <v>2060</v>
       </c>
       <c r="E568" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F568" s="4" t="s">
         <v>25</v>
@@ -11885,7 +11887,7 @@
         <v>2060</v>
       </c>
       <c r="E569" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F569" s="4" t="s">
         <v>25</v>
@@ -11905,7 +11907,7 @@
         <v>2060</v>
       </c>
       <c r="E570" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F570" s="4" t="s">
         <v>25</v>
@@ -11925,7 +11927,7 @@
         <v>2060</v>
       </c>
       <c r="E571" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F571" s="4" t="s">
         <v>25</v>
@@ -11945,7 +11947,7 @@
         <v>2060</v>
       </c>
       <c r="E572" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F572" s="4" t="s">
         <v>25</v>
@@ -11965,7 +11967,7 @@
         <v>2060</v>
       </c>
       <c r="E573" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F573" s="4" t="s">
         <v>25</v>
@@ -11985,7 +11987,7 @@
         <v>2060</v>
       </c>
       <c r="E574" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F574" s="4" t="s">
         <v>25</v>
@@ -12005,7 +12007,7 @@
         <v>2060</v>
       </c>
       <c r="E575" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F575" s="4" t="s">
         <v>25</v>
@@ -12025,7 +12027,7 @@
         <v>2060</v>
       </c>
       <c r="E576" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F576" s="4" t="s">
         <v>25</v>
@@ -12045,7 +12047,7 @@
         <v>2060</v>
       </c>
       <c r="E577" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F577" s="4" t="s">
         <v>25</v>
@@ -12065,7 +12067,7 @@
         <v>2060</v>
       </c>
       <c r="E578" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F578" s="4" t="s">
         <v>25</v>
@@ -12085,7 +12087,7 @@
         <v>2060</v>
       </c>
       <c r="E579" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F579" s="4" t="s">
         <v>25</v>
@@ -12105,7 +12107,7 @@
         <v>2060</v>
       </c>
       <c r="E580" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F580" s="4" t="s">
         <v>25</v>
@@ -12125,7 +12127,7 @@
         <v>2060</v>
       </c>
       <c r="E581" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F581" s="4" t="s">
         <v>25</v>
@@ -12145,7 +12147,7 @@
         <v>2060</v>
       </c>
       <c r="E582" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F582" s="4" t="s">
         <v>25</v>
@@ -12165,7 +12167,7 @@
         <v>2060</v>
       </c>
       <c r="E583" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F583" s="4" t="s">
         <v>25</v>
@@ -12185,7 +12187,7 @@
         <v>2060</v>
       </c>
       <c r="E584" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F584" s="4" t="s">
         <v>25</v>
@@ -12205,7 +12207,7 @@
         <v>2060</v>
       </c>
       <c r="E585" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F585" s="4" t="s">
         <v>25</v>
@@ -12225,7 +12227,7 @@
         <v>2060</v>
       </c>
       <c r="E586" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F586" s="4" t="s">
         <v>25</v>
@@ -12245,7 +12247,7 @@
         <v>2060</v>
       </c>
       <c r="E587" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F587" s="4" t="s">
         <v>25</v>
@@ -12265,7 +12267,7 @@
         <v>2060</v>
       </c>
       <c r="E588" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F588" s="4" t="s">
         <v>25</v>
@@ -12285,7 +12287,7 @@
         <v>2060</v>
       </c>
       <c r="E589" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F589" s="4" t="s">
         <v>25</v>
@@ -12305,7 +12307,7 @@
         <v>2060</v>
       </c>
       <c r="E590" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F590" s="4" t="s">
         <v>25</v>
@@ -12325,7 +12327,7 @@
         <v>2060</v>
       </c>
       <c r="E591" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F591" s="4" t="s">
         <v>25</v>
@@ -12345,7 +12347,7 @@
         <v>2060</v>
       </c>
       <c r="E592" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F592" s="4" t="s">
         <v>25</v>
@@ -12365,7 +12367,7 @@
         <v>2060</v>
       </c>
       <c r="E593" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F593" s="4" t="s">
         <v>25</v>
@@ -12385,7 +12387,7 @@
         <v>2060</v>
       </c>
       <c r="E594" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F594" s="4" t="s">
         <v>25</v>
@@ -12405,7 +12407,7 @@
         <v>2060</v>
       </c>
       <c r="E595" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F595" s="4" t="s">
         <v>25</v>
@@ -12425,7 +12427,7 @@
         <v>2060</v>
       </c>
       <c r="E596" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F596" s="4" t="s">
         <v>25</v>
@@ -12445,7 +12447,7 @@
         <v>2060</v>
       </c>
       <c r="E597" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F597" s="4" t="s">
         <v>25</v>
@@ -12465,7 +12467,7 @@
         <v>2060</v>
       </c>
       <c r="E598" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F598" s="4" t="s">
         <v>25</v>
@@ -12485,7 +12487,7 @@
         <v>2060</v>
       </c>
       <c r="E599" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F599" s="4" t="s">
         <v>25</v>
@@ -12505,7 +12507,7 @@
         <v>2060</v>
       </c>
       <c r="E600" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F600" s="4" t="s">
         <v>25</v>
@@ -12525,7 +12527,7 @@
         <v>2060</v>
       </c>
       <c r="E601" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F601" s="4" t="s">
         <v>25</v>
@@ -12545,7 +12547,7 @@
         <v>2060</v>
       </c>
       <c r="E602" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F602" s="4" t="s">
         <v>25</v>
@@ -12565,7 +12567,7 @@
         <v>2060</v>
       </c>
       <c r="E603" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F603" s="4" t="s">
         <v>25</v>
@@ -12585,7 +12587,7 @@
         <v>2060</v>
       </c>
       <c r="E604" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F604" s="4" t="s">
         <v>25</v>
@@ -12605,7 +12607,7 @@
         <v>2060</v>
       </c>
       <c r="E605" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F605" s="4" t="s">
         <v>25</v>
@@ -12625,7 +12627,7 @@
         <v>2060</v>
       </c>
       <c r="E606" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F606" s="4" t="s">
         <v>25</v>
@@ -12645,7 +12647,7 @@
         <v>2060</v>
       </c>
       <c r="E607" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F607" s="4" t="s">
         <v>25</v>
@@ -12665,7 +12667,7 @@
         <v>2060</v>
       </c>
       <c r="E608" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F608" s="4" t="s">
         <v>25</v>
@@ -12685,7 +12687,7 @@
         <v>2060</v>
       </c>
       <c r="E609" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F609" s="4" t="s">
         <v>25</v>
@@ -12705,7 +12707,7 @@
         <v>2060</v>
       </c>
       <c r="E610" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F610" s="4" t="s">
         <v>25</v>
@@ -12725,7 +12727,7 @@
         <v>2060</v>
       </c>
       <c r="E611" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F611" s="4" t="s">
         <v>25</v>
@@ -12745,7 +12747,7 @@
         <v>2060</v>
       </c>
       <c r="E612" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F612" s="4" t="s">
         <v>25</v>
@@ -12765,7 +12767,7 @@
         <v>2060</v>
       </c>
       <c r="E613" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F613" s="4" t="s">
         <v>25</v>
@@ -12785,7 +12787,7 @@
         <v>2060</v>
       </c>
       <c r="E614" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F614" s="4" t="s">
         <v>25</v>
@@ -12805,7 +12807,7 @@
         <v>2060</v>
       </c>
       <c r="E615" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F615" s="4" t="s">
         <v>25</v>
@@ -12825,7 +12827,7 @@
         <v>2060</v>
       </c>
       <c r="E616" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F616" s="4" t="s">
         <v>25</v>
@@ -12845,7 +12847,7 @@
         <v>2060</v>
       </c>
       <c r="E617" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F617" s="4" t="s">
         <v>25</v>
@@ -12865,7 +12867,7 @@
         <v>2060</v>
       </c>
       <c r="E618" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F618" s="4" t="s">
         <v>25</v>
@@ -12885,7 +12887,7 @@
         <v>2060</v>
       </c>
       <c r="E619" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F619" s="4" t="s">
         <v>25</v>
@@ -12905,7 +12907,7 @@
         <v>2060</v>
       </c>
       <c r="E620" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F620" s="4" t="s">
         <v>25</v>
@@ -12925,7 +12927,7 @@
         <v>2060</v>
       </c>
       <c r="E621" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F621" s="4" t="s">
         <v>25</v>
@@ -12945,7 +12947,7 @@
         <v>2060</v>
       </c>
       <c r="E622" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F622" s="4" t="s">
         <v>25</v>
@@ -12965,7 +12967,7 @@
         <v>2060</v>
       </c>
       <c r="E623" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F623" s="4" t="s">
         <v>25</v>
@@ -12985,7 +12987,7 @@
         <v>2060</v>
       </c>
       <c r="E624" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F624" s="4" t="s">
         <v>25</v>
@@ -13005,7 +13007,7 @@
         <v>2060</v>
       </c>
       <c r="E625" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F625" s="4" t="s">
         <v>25</v>
@@ -13025,7 +13027,7 @@
         <v>2060</v>
       </c>
       <c r="E626" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F626" s="4" t="s">
         <v>25</v>
@@ -13045,7 +13047,7 @@
         <v>2060</v>
       </c>
       <c r="E627" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F627" s="4" t="s">
         <v>25</v>
@@ -13065,7 +13067,7 @@
         <v>2060</v>
       </c>
       <c r="E628" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F628" s="4" t="s">
         <v>25</v>
@@ -13085,7 +13087,7 @@
         <v>2060</v>
       </c>
       <c r="E629" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F629" s="4" t="s">
         <v>25</v>
@@ -13105,7 +13107,7 @@
         <v>2060</v>
       </c>
       <c r="E630" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F630" s="4" t="s">
         <v>25</v>
@@ -13125,7 +13127,7 @@
         <v>2060</v>
       </c>
       <c r="E631" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F631" s="4" t="s">
         <v>25</v>
@@ -13145,7 +13147,7 @@
         <v>2060</v>
       </c>
       <c r="E632" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F632" s="4" t="s">
         <v>25</v>
@@ -13165,7 +13167,7 @@
         <v>2060</v>
       </c>
       <c r="E633" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F633" s="4" t="s">
         <v>25</v>
@@ -13185,7 +13187,7 @@
         <v>2060</v>
       </c>
       <c r="E634" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F634" s="4" t="s">
         <v>25</v>
@@ -13205,7 +13207,7 @@
         <v>2060</v>
       </c>
       <c r="E635" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F635" s="4" t="s">
         <v>25</v>
@@ -13225,7 +13227,7 @@
         <v>2060</v>
       </c>
       <c r="E636" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F636" s="4" t="s">
         <v>25</v>
@@ -13245,7 +13247,7 @@
         <v>2060</v>
       </c>
       <c r="E637" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F637" s="4" t="s">
         <v>25</v>
@@ -13265,7 +13267,7 @@
         <v>2060</v>
       </c>
       <c r="E638" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F638" s="4" t="s">
         <v>25</v>
@@ -13285,7 +13287,7 @@
         <v>2060</v>
       </c>
       <c r="E639" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F639" s="4" t="s">
         <v>25</v>
@@ -13305,7 +13307,7 @@
         <v>2060</v>
       </c>
       <c r="E640" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F640" s="4" t="s">
         <v>25</v>
@@ -13325,7 +13327,7 @@
         <v>2060</v>
       </c>
       <c r="E641" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F641" s="4" t="s">
         <v>25</v>
@@ -13345,7 +13347,7 @@
         <v>2060</v>
       </c>
       <c r="E642" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F642" s="4" t="s">
         <v>25</v>
@@ -13365,7 +13367,7 @@
         <v>2060</v>
       </c>
       <c r="E643" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F643" s="4" t="s">
         <v>25</v>
@@ -13385,7 +13387,7 @@
         <v>2060</v>
       </c>
       <c r="E644" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F644" s="4" t="s">
         <v>25</v>
@@ -13405,7 +13407,7 @@
         <v>2060</v>
       </c>
       <c r="E645" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F645" s="4" t="s">
         <v>25</v>
@@ -13425,7 +13427,7 @@
         <v>2060</v>
       </c>
       <c r="E646" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F646" s="4" t="s">
         <v>25</v>
@@ -13445,7 +13447,7 @@
         <v>2060</v>
       </c>
       <c r="E647" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F647" s="4" t="s">
         <v>25</v>
@@ -13465,7 +13467,7 @@
         <v>2060</v>
       </c>
       <c r="E648" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F648" s="4" t="s">
         <v>25</v>
@@ -13485,7 +13487,7 @@
         <v>2060</v>
       </c>
       <c r="E649" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F649" s="4" t="s">
         <v>25</v>
@@ -13505,7 +13507,7 @@
         <v>2060</v>
       </c>
       <c r="E650" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F650" s="4" t="s">
         <v>25</v>
@@ -13525,7 +13527,7 @@
         <v>2060</v>
       </c>
       <c r="E651" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F651" s="4" t="s">
         <v>25</v>
@@ -13545,7 +13547,7 @@
         <v>2060</v>
       </c>
       <c r="E652" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F652" s="4" t="s">
         <v>25</v>
@@ -13565,7 +13567,7 @@
         <v>2060</v>
       </c>
       <c r="E653" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F653" s="4" t="s">
         <v>25</v>
@@ -13585,7 +13587,7 @@
         <v>2060</v>
       </c>
       <c r="E654" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F654" s="4" t="s">
         <v>25</v>
@@ -13605,7 +13607,7 @@
         <v>2060</v>
       </c>
       <c r="E655" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F655" s="4" t="s">
         <v>25</v>
@@ -13625,7 +13627,7 @@
         <v>2060</v>
       </c>
       <c r="E656" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F656" s="4" t="s">
         <v>25</v>
@@ -13645,7 +13647,7 @@
         <v>2060</v>
       </c>
       <c r="E657" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F657" s="4" t="s">
         <v>25</v>
@@ -13665,7 +13667,7 @@
         <v>2060</v>
       </c>
       <c r="E658" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F658" s="4" t="s">
         <v>25</v>
@@ -13685,7 +13687,7 @@
         <v>2060</v>
       </c>
       <c r="E659" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F659" s="4" t="s">
         <v>25</v>
@@ -13705,7 +13707,7 @@
         <v>2060</v>
       </c>
       <c r="E660" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F660" s="4" t="s">
         <v>25</v>
@@ -13725,7 +13727,7 @@
         <v>2060</v>
       </c>
       <c r="E661" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F661" s="4" t="s">
         <v>25</v>
@@ -13745,7 +13747,7 @@
         <v>2060</v>
       </c>
       <c r="E662" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F662" s="4" t="s">
         <v>25</v>
@@ -13765,7 +13767,7 @@
         <v>2060</v>
       </c>
       <c r="E663" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F663" s="4" t="s">
         <v>25</v>
@@ -13785,7 +13787,7 @@
         <v>2060</v>
       </c>
       <c r="E664" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F664" s="4" t="s">
         <v>25</v>
@@ -13805,7 +13807,7 @@
         <v>2060</v>
       </c>
       <c r="E665" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F665" s="4" t="s">
         <v>25</v>
@@ -13825,7 +13827,7 @@
         <v>2060</v>
       </c>
       <c r="E666" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F666" s="4" t="s">
         <v>25</v>
@@ -13845,7 +13847,7 @@
         <v>2060</v>
       </c>
       <c r="E667" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F667" s="4" t="s">
         <v>25</v>
@@ -13865,7 +13867,7 @@
         <v>2060</v>
       </c>
       <c r="E668" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F668" s="4" t="s">
         <v>25</v>
@@ -13885,7 +13887,7 @@
         <v>2060</v>
       </c>
       <c r="E669" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F669" s="4" t="s">
         <v>25</v>
@@ -13905,7 +13907,7 @@
         <v>2060</v>
       </c>
       <c r="E670" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F670" s="4" t="s">
         <v>25</v>
@@ -13925,7 +13927,7 @@
         <v>2060</v>
       </c>
       <c r="E671" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F671" s="4" t="s">
         <v>25</v>
@@ -13945,7 +13947,7 @@
         <v>2060</v>
       </c>
       <c r="E672" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F672" s="4" t="s">
         <v>25</v>
@@ -13965,7 +13967,7 @@
         <v>2060</v>
       </c>
       <c r="E673" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F673" s="4" t="s">
         <v>25</v>
@@ -13985,7 +13987,7 @@
         <v>2060</v>
       </c>
       <c r="E674" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F674" s="4" t="s">
         <v>25</v>
@@ -14005,7 +14007,7 @@
         <v>2060</v>
       </c>
       <c r="E675" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F675" s="4" t="s">
         <v>25</v>
@@ -14025,7 +14027,7 @@
         <v>2060</v>
       </c>
       <c r="E676" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F676" s="4" t="s">
         <v>25</v>
@@ -14045,7 +14047,7 @@
         <v>2060</v>
       </c>
       <c r="E677" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F677" s="4" t="s">
         <v>25</v>
@@ -14065,7 +14067,7 @@
         <v>2060</v>
       </c>
       <c r="E678" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F678" s="4" t="s">
         <v>25</v>
@@ -14085,7 +14087,7 @@
         <v>2060</v>
       </c>
       <c r="E679" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F679" s="4" t="s">
         <v>25</v>
@@ -14105,7 +14107,7 @@
         <v>2060</v>
       </c>
       <c r="E680" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F680" s="4" t="s">
         <v>25</v>
@@ -14125,7 +14127,7 @@
         <v>2060</v>
       </c>
       <c r="E681" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F681" s="4" t="s">
         <v>25</v>
@@ -14145,7 +14147,7 @@
         <v>2060</v>
       </c>
       <c r="E682" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F682" s="4" t="s">
         <v>25</v>
@@ -14165,7 +14167,7 @@
         <v>2060</v>
       </c>
       <c r="E683" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F683" s="4" t="s">
         <v>25</v>
@@ -14185,7 +14187,7 @@
         <v>2060</v>
       </c>
       <c r="E684" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F684" s="4" t="s">
         <v>25</v>
@@ -14205,7 +14207,7 @@
         <v>2060</v>
       </c>
       <c r="E685" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F685" s="4" t="s">
         <v>25</v>
